--- a/datasets/LA School districts/LAschooldistricts.xlsx
+++ b/datasets/LA School districts/LAschooldistricts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="507">
   <si>
     <t>District</t>
   </si>
@@ -2451,13 +2451,87 @@
   </si>
   <si>
     <t>https://www.santamonica.gov/process-explainers/how-to-request-public-records</t>
+  </si>
+  <si>
+    <t>city doesn't have records</t>
+  </si>
+  <si>
+    <t>September 14th</t>
+  </si>
+  <si>
+    <t>contact school district</t>
+  </si>
+  <si>
+    <t>https://www.ccusd.org/apps/contact/</t>
+  </si>
+  <si>
+    <t>In contact with Soniya Perl</t>
+  </si>
+  <si>
+    <t>Garden Grove Unified School District</t>
+  </si>
+  <si>
+    <t>Garden Grove, CA 92840</t>
+  </si>
+  <si>
+    <t>Phone:  (714) 663-6133</t>
+  </si>
+  <si>
+    <t>Fax:  (714) 663-6140</t>
+  </si>
+  <si>
+    <t>Email:  CPRArequest@ggusd.us</t>
+  </si>
+  <si>
+    <t>Other school Disctricts: Name</t>
+  </si>
+  <si>
+    <t>https://www.ggusd.us/departments/office-of-records-management/public-records-requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacted </t>
+  </si>
+  <si>
+    <t>Sep 15th</t>
+  </si>
+  <si>
+    <r>
+      <t>10331 Stanford Avenue, 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Floor</t>
+    </r>
+  </si>
+  <si>
+    <t>Type of Request</t>
+  </si>
+  <si>
+    <t>Public record request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep 15th Phone call to superintendents office </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2513,8 +2587,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF30303B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2535,7 +2635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2787,7 +2893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2852,37 +2958,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3164,11 +3275,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA61"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3177,6 +3288,8 @@
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.9" thickBot="1" x14ac:dyDescent="0.3">
@@ -3263,15 +3376,20 @@
       <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="28" t="s">
         <v>133</v>
       </c>
+      <c r="K2" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
       <c r="O2" s="19" t="s">
         <v>245</v>
       </c>
@@ -3301,15 +3419,18 @@
       <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="J3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
       <c r="O3" s="9" t="s">
         <v>246</v>
       </c>
@@ -3337,13 +3458,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="H4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
       <c r="O4" s="11" t="s">
         <v>5</v>
       </c>
@@ -3696,31 +3820,37 @@
       <c r="J14" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="V14" s="22" t="s">
+      <c r="R14" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="W14" s="23" t="s">
+      <c r="W14" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="X14" s="24" t="s">
+      <c r="X14" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="Y14" s="25" t="s">
+      <c r="Y14" s="29" t="s">
         <v>486</v>
       </c>
-      <c r="Z14" s="25" t="s">
+      <c r="Z14" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="AA14" s="26" t="s">
+      <c r="AA14" s="36" t="s">
         <v>488</v>
       </c>
     </row>
@@ -3743,27 +3873,31 @@
       <c r="J15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="Q15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="V15" s="27" t="s">
+      <c r="Q15" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="W15" s="28" t="s">
+      <c r="W15" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="X15" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
+      <c r="X15" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
     </row>
     <row r="16" spans="1:27" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -3780,23 +3914,27 @@
         <v>156</v>
       </c>
       <c r="J16" s="12"/>
-      <c r="O16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16" s="3" t="s">
+      <c r="O16" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="12"/>
-      <c r="V16" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="W16" s="31" t="s">
+      <c r="Q16" s="35"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="W16" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
     </row>
     <row r="17" spans="1:24" ht="44.15" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -5175,22 +5313,22 @@
       <c r="X55" s="12"/>
     </row>
     <row r="56" spans="1:24" ht="53" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E56" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="36" t="s">
         <v>485</v>
       </c>
       <c r="H56" s="7" t="s">
@@ -5222,18 +5360,20 @@
       </c>
     </row>
     <row r="57" spans="1:24" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
+      <c r="C57" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29" t="s">
+        <v>489</v>
+      </c>
       <c r="H57" s="9" t="s">
         <v>234</v>
       </c>
@@ -5263,16 +5403,22 @@
       </c>
     </row>
     <row r="58" spans="1:24" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="31" t="s">
+      <c r="A58" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>492</v>
+      </c>
       <c r="H58" s="11" t="s">
         <v>5</v>
       </c>
@@ -5400,6 +5546,85 @@
         <v>481</v>
       </c>
       <c r="X61" s="15"/>
+    </row>
+    <row r="70" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H70" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="L70" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="M70" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G71" s="23">
+        <v>1</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="I71" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="L71" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="M71" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="72" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G72" s="23">
+        <v>1</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="I72" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+    </row>
+    <row r="73" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G73" s="23">
+        <v>1</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+    </row>
+    <row r="74" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G74" s="23">
+        <v>1</v>
+      </c>
+      <c r="H74" s="23"/>
+      <c r="I74" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+    </row>
+    <row r="76" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H76" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
